--- a/meta/3-4-1-a.xlsx
+++ b/meta/3-4-1-a.xlsx
@@ -125,9 +125,6 @@
     <t>3.4 К 2030 году уменьшить на треть преждевременную смертность от неинфекционных заболеваний посредством профилактики и лечения и поддержания психического здоровья и благополучия</t>
   </si>
   <si>
-    <t>3.4.1.1 Ожидаемая продолжительность жизни в 15 лет, 45 лет, 65 лет по полу и территории</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ожидаемая продолжительность жизни (число лет) для лиц, достигших определенного возраста (15, 45 и 65 лет) представляет собой среднее число лет, которое предстояло бы прожить лицам, достигшим соответстующего возраста (15, 45 и 65 лет), при условии, что в каждом следующем возрасте современный уровень смертности не изменится. </t>
   </si>
   <si>
@@ -170,17 +167,28 @@
     <t xml:space="preserve">Национальное определение показателя, используемое в статистике, соответствует его международному определению. 
 Для стандартизации используются модельные возрастные структуры, разработанные Всемирной Организацией Здравоохранения (ВОЗ), так называемые Европейский стандарт и Всемирный стандарт ВОЗ. </t>
   </si>
+  <si>
+    <t>3.4.1.a Ожидаемая продолжительность жизни в 15 лет, 45 лет, 65 лет по полу и территории</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,22 +294,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -309,24 +325,20 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,7 +649,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,8 +685,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>36</v>
+      <c r="B4" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.25">
@@ -750,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +776,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -772,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -786,7 +798,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -794,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -802,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
